--- a/Kanban.xlsx
+++ b/Kanban.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Начало" sheetId="1" r:id="rId1"/>
+    <sheet name="Конец" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>In Progress</t>
   </si>
@@ -498,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -643,4 +644,156 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>